--- a/Projekt/Systemarchitektur.xlsx
+++ b/Projekt/Systemarchitektur.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrej_mac/GDV2020 Projekt/04AnNiMe/Projekt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CDE44C7-4B88-F744-AB9E-79DDE8311069}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97299C3C-1166-CE4C-8910-8232AB5DAD2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{F71F8DC9-2F41-8F45-8D2F-E3469ED89254}"/>
+    <workbookView xWindow="33600" yWindow="460" windowWidth="19200" windowHeight="21140" xr2:uid="{F71F8DC9-2F41-8F45-8D2F-E3469ED89254}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="197">
   <si>
     <t>Assets</t>
   </si>
@@ -287,9 +287,6 @@
     <t>NR_drehen.cs</t>
   </si>
   <si>
-    <t>NR_FlossmitReaction.cs</t>
-  </si>
-  <si>
     <t>NR_gui.cs</t>
   </si>
   <si>
@@ -422,15 +419,6 @@
     <t>T_Teleporter.png</t>
   </si>
   <si>
-    <t>TexturesCom_Flames0005_2_M(https___www.textures.com_download_flames0005_19040).jpg</t>
-  </si>
-  <si>
-    <t>TexturesCom_InkFull0001_2_M(https___www.textures.com_download_inkfull0001_28368).jpg</t>
-  </si>
-  <si>
-    <t>TexturesCom_InkFull0011_2_M(https___www.textures.com_download_inkfull0011_28410).jpg</t>
-  </si>
-  <si>
     <t>2659421.jpg</t>
   </si>
   <si>
@@ -473,9 +461,6 @@
     <t>Directional Light</t>
   </si>
   <si>
-    <t>NR_GuiEmpty</t>
-  </si>
-  <si>
     <t>Terrain</t>
   </si>
   <si>
@@ -488,9 +473,6 @@
     <t>MR_karotten</t>
   </si>
   <si>
-    <t>MR_Himmel</t>
-  </si>
-  <si>
     <t>MR_bridge</t>
   </si>
   <si>
@@ -549,9 +531,6 @@
   </si>
   <si>
     <t>NR_Steinueberquerung</t>
-  </si>
-  <si>
-    <t>NR_Floss</t>
   </si>
   <si>
     <t>AM_Trampolin</t>
@@ -661,6 +640,30 @@
       </rPr>
       <t xml:space="preserve"> = Objekten in </t>
     </r>
+  </si>
+  <si>
+    <t>TexturesCom_Flames0005_2_M</t>
+  </si>
+  <si>
+    <t>TexturesCom_InkFull0001_2_M</t>
+  </si>
+  <si>
+    <t>TexturesCom_InkFull0011_2_M</t>
+  </si>
+  <si>
+    <t>AM_timeStop.cs</t>
+  </si>
+  <si>
+    <t>kugeltrigger</t>
+  </si>
+  <si>
+    <t>kugelholder</t>
+  </si>
+  <si>
+    <t>NR_Cylinder</t>
+  </si>
+  <si>
+    <t>NR_Fass</t>
   </si>
 </sst>
 </file>
@@ -1032,15 +1035,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>4032</xdr:colOff>
       <xdr:row>61</xdr:row>
       <xdr:rowOff>112232</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3514651</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>112889</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1055,8 +1058,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1842977" y="12363302"/>
-          <a:ext cx="3514651" cy="3101164"/>
+          <a:off x="1846540" y="12409057"/>
+          <a:ext cx="3510619" cy="3024467"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1412,9 +1415,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>106325</xdr:rowOff>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1429,8 +1432,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7738140" y="12971721"/>
-          <a:ext cx="4436139" cy="4004930"/>
+          <a:off x="7733414" y="13122940"/>
+          <a:ext cx="4445886" cy="4263360"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1459,15 +1462,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5907</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>106325</xdr:rowOff>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>106326</xdr:rowOff>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1482,8 +1485,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7732233" y="14365767"/>
-          <a:ext cx="4442046" cy="401675"/>
+          <a:off x="7747000" y="14757400"/>
+          <a:ext cx="4432300" cy="406400"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1515,15 +1518,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>11814</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>118140</xdr:rowOff>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>100419</xdr:rowOff>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1538,8 +1541,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7738140" y="14578419"/>
-          <a:ext cx="4436139" cy="383953"/>
+          <a:off x="7747000" y="14960600"/>
+          <a:ext cx="4445000" cy="406400"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1571,15 +1574,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>11814</xdr:colOff>
+      <xdr:colOff>25400</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>118140</xdr:rowOff>
+      <xdr:rowOff>118141</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>106327</xdr:rowOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1594,8 +1597,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7738140" y="13574233"/>
-          <a:ext cx="4436139" cy="2799908"/>
+          <a:off x="7747000" y="13732541"/>
+          <a:ext cx="4419600" cy="3031459"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1629,15 +1632,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5907</xdr:colOff>
+      <xdr:colOff>12700</xdr:colOff>
       <xdr:row>64</xdr:row>
       <xdr:rowOff>112233</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>4442046</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>106327</xdr:rowOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1652,8 +1655,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7732233" y="12965814"/>
-          <a:ext cx="4436139" cy="3408327"/>
+          <a:off x="7734300" y="13117033"/>
+          <a:ext cx="4429346" cy="3634267"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1684,72 +1687,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>5907</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>106326</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>106326</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="139" name="Gerade Verbindung mit Pfeil 138">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3240B61-6663-8E42-AD92-34D68CEF5D70}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="7732233" y="12959907"/>
-          <a:ext cx="4442046" cy="4016745"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>12701</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:colOff>8819</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>114652</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:colOff>8820</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>97014</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1764,8 +1711,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="14351001" y="13716000"/>
-          <a:ext cx="7200899" cy="1219200"/>
+          <a:off x="14349236" y="13502569"/>
+          <a:ext cx="7214306" cy="1605139"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1797,15 +1744,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>6351</xdr:colOff>
+      <xdr:colOff>8819</xdr:colOff>
       <xdr:row>63</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>105833</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1820,8 +1767,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="14344651" y="12903200"/>
-          <a:ext cx="7207249" cy="1028700"/>
+          <a:off x="14349236" y="12880975"/>
+          <a:ext cx="7205486" cy="1424164"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1967,15 +1914,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
+      <xdr:colOff>17639</xdr:colOff>
       <xdr:row>63</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>105833</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1990,8 +1937,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="14344650" y="12903200"/>
-          <a:ext cx="7207250" cy="3257550"/>
+          <a:off x="14358056" y="12880975"/>
+          <a:ext cx="7196667" cy="3452636"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2023,15 +1970,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>63</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>114653</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2046,8 +1993,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="14344650" y="12903200"/>
-          <a:ext cx="7207250" cy="3657600"/>
+          <a:off x="14340417" y="12880975"/>
+          <a:ext cx="7214306" cy="3867150"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2079,71 +2026,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="172" name="Gerade Verbindung mit Pfeil 171">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4236F7F8-7F29-E342-B61E-475C83048C25}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="14344650" y="13309600"/>
-          <a:ext cx="7207250" cy="3860800"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="tx2"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
       <xdr:row>63</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>105834</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2158,8 +2049,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="14344650" y="12903200"/>
-          <a:ext cx="7207250" cy="1841500"/>
+          <a:off x="14340417" y="12880975"/>
+          <a:ext cx="7214306" cy="2032706"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2247,15 +2138,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:colOff>17639</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>114653</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:colOff>8820</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>97014</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2270,8 +2161,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="14344650" y="14122400"/>
-          <a:ext cx="7207250" cy="1428750"/>
+          <a:off x="14358056" y="13908264"/>
+          <a:ext cx="7205486" cy="1807986"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2359,15 +2250,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:colOff>17639</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>123472</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:colOff>8820</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>123473</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2382,8 +2273,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="14351000" y="14935200"/>
-          <a:ext cx="7200900" cy="819150"/>
+          <a:off x="14358056" y="14525625"/>
+          <a:ext cx="7205486" cy="1419931"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2418,15 +2309,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>26458</xdr:colOff>
       <xdr:row>75</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:rowOff>123472</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>17640</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>141111</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2441,8 +2332,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="14338300" y="15341600"/>
-          <a:ext cx="7213600" cy="622300"/>
+          <a:off x="14366875" y="15337014"/>
+          <a:ext cx="7205487" cy="829028"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2532,15 +2423,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:colOff>8819</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>123472</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>8820</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>132292</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2555,8 +2446,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="14344650" y="14528800"/>
-          <a:ext cx="7207250" cy="825500"/>
+          <a:off x="14349236" y="14119930"/>
+          <a:ext cx="7214306" cy="1428751"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2646,15 +2537,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>6351</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:colOff>17639</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>114653</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:colOff>26460</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>105833</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2669,8 +2560,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="14344651" y="13919200"/>
-          <a:ext cx="7207249" cy="1219200"/>
+          <a:off x="14358056" y="13705417"/>
+          <a:ext cx="7223126" cy="1613958"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2758,15 +2649,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:colOff>26458</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>123473</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>86</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:rowOff>101601</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2781,8 +2672,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="14344650" y="16783050"/>
-          <a:ext cx="7207250" cy="793750"/>
+          <a:off x="14366875" y="16959792"/>
+          <a:ext cx="7187848" cy="586670"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2987,15 +2878,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>3884</xdr:colOff>
+      <xdr:colOff>12700</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>93211</xdr:rowOff>
+      <xdr:rowOff>93212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>89328</xdr:rowOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3010,8 +2901,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="23322171" y="8979327"/>
-          <a:ext cx="2233181" cy="3429389"/>
+          <a:off x="23329900" y="9034012"/>
+          <a:ext cx="2222500" cy="3665988"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3214,6 +3105,171 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="Gerade Verbindung mit Pfeil 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C659FAC-C624-3D4B-8C07-B8DE59FFBEA0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7734300" y="13538200"/>
+          <a:ext cx="4457700" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>17639</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>105833</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>8820</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>123472</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="66" name="Gerade Verbindung mit Pfeil 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DECA0F6-CE15-8641-BFFC-31268A942789}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="14358056" y="12885208"/>
+          <a:ext cx="7205486" cy="5291667"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>17640</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>114653</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>17639</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>105833</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="69" name="Gerade Verbindung mit Pfeil 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD2F7908-2CF8-B440-BCDA-B772272EAEC2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="14358057" y="12894028"/>
+          <a:ext cx="7214304" cy="4250972"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3258,8 +3314,8 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{67B90EE6-022B-CF4A-942E-E6E35F3A25EB}" name="Tabelle714" displayName="Tabelle714" ref="E62:E94" totalsRowShown="0">
-  <autoFilter ref="E62:E94" xr:uid="{F9E43085-BF73-5F47-A115-FE643AB58AD4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{67B90EE6-022B-CF4A-942E-E6E35F3A25EB}" name="Tabelle714" displayName="Tabelle714" ref="E62:E95" totalsRowShown="0">
+  <autoFilter ref="E62:E95" xr:uid="{F9E43085-BF73-5F47-A115-FE643AB58AD4}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{40B586B6-88AE-9C43-857F-248966EFFFAD}" name="Scripts"/>
   </tableColumns>
@@ -3268,8 +3324,8 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{C9857506-E40A-9540-A51C-A85880FF6D80}" name="Tabelle14" displayName="Tabelle14" ref="G62:G92" totalsRowShown="0">
-  <autoFilter ref="G62:G92" xr:uid="{6553AE3B-9FC7-8B4E-A103-BA5FB4BD3C6D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{C9857506-E40A-9540-A51C-A85880FF6D80}" name="Tabelle14" displayName="Tabelle14" ref="G62:G93" totalsRowShown="0">
+  <autoFilter ref="G62:G93" xr:uid="{6553AE3B-9FC7-8B4E-A103-BA5FB4BD3C6D}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{A7877C4E-01BE-E647-BB33-572C5E95052D}" name="MR_Hauptszene.unity"/>
   </tableColumns>
@@ -3348,8 +3404,8 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{CA1D4E84-AD04-3A46-AA9F-2F9314F4346A}" name="Tabelle7" displayName="Tabelle7" ref="C62:C94" totalsRowShown="0">
-  <autoFilter ref="C62:C94" xr:uid="{39BAC333-1312-A44B-98A1-6E1B2C2B6D29}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{CA1D4E84-AD04-3A46-AA9F-2F9314F4346A}" name="Tabelle7" displayName="Tabelle7" ref="C62:C95" totalsRowShown="0">
+  <autoFilter ref="C62:C95" xr:uid="{39BAC333-1312-A44B-98A1-6E1B2C2B6D29}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{1FFE63FB-75E1-BB46-978D-1730DFD40E3F}" name="Scripts"/>
   </tableColumns>
@@ -3676,8 +3732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1F76D3F-6700-3D45-A00B-A4B35EACF80E}">
   <dimension ref="A8:I137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B40" zoomScale="83" workbookViewId="0">
-      <selection activeCell="I84" sqref="I84"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="75" workbookViewId="0">
+      <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3894,17 +3950,17 @@
         <v>12</v>
       </c>
       <c r="I45" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="46" spans="3:9" x14ac:dyDescent="0.2">
       <c r="I46" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="47" spans="3:9" x14ac:dyDescent="0.2">
       <c r="I47" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="48" spans="3:9" x14ac:dyDescent="0.2">
@@ -3912,7 +3968,7 @@
         <v>10</v>
       </c>
       <c r="I48" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="49" spans="3:9" x14ac:dyDescent="0.2">
@@ -3920,10 +3976,10 @@
         <v>52</v>
       </c>
       <c r="E49" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="I49" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="50" spans="3:9" x14ac:dyDescent="0.2">
@@ -3931,10 +3987,10 @@
         <v>53</v>
       </c>
       <c r="E50" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="I50" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="51" spans="3:9" x14ac:dyDescent="0.2">
@@ -3942,10 +3998,10 @@
         <v>54</v>
       </c>
       <c r="E51" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="I51" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="52" spans="3:9" x14ac:dyDescent="0.2">
@@ -3953,10 +4009,10 @@
         <v>55</v>
       </c>
       <c r="E52" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="I52" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="53" spans="3:9" x14ac:dyDescent="0.2">
@@ -3964,10 +4020,10 @@
         <v>56</v>
       </c>
       <c r="E53" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="I53" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="54" spans="3:9" x14ac:dyDescent="0.2">
@@ -3975,10 +4031,10 @@
         <v>57</v>
       </c>
       <c r="E54" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I54" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="55" spans="3:9" x14ac:dyDescent="0.2">
@@ -3986,10 +4042,10 @@
         <v>58</v>
       </c>
       <c r="E55" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="I55" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="56" spans="3:9" x14ac:dyDescent="0.2">
@@ -3997,10 +4053,10 @@
         <v>59</v>
       </c>
       <c r="E56" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="I56" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="57" spans="3:9" x14ac:dyDescent="0.2">
@@ -4008,10 +4064,10 @@
         <v>60</v>
       </c>
       <c r="E57" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="I57" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="58" spans="3:9" x14ac:dyDescent="0.2">
@@ -4019,7 +4075,7 @@
         <v>61</v>
       </c>
       <c r="I58" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="59" spans="3:9" x14ac:dyDescent="0.2">
@@ -4027,17 +4083,17 @@
         <v>62</v>
       </c>
       <c r="I59" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="60" spans="3:9" x14ac:dyDescent="0.2">
       <c r="I60" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="61" spans="3:9" x14ac:dyDescent="0.2">
       <c r="I61" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="62" spans="3:9" x14ac:dyDescent="0.2">
@@ -4045,13 +4101,13 @@
         <v>11</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E62" t="s">
         <v>11</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G62" t="s">
         <v>57</v>
@@ -4065,7 +4121,7 @@
         <v>63</v>
       </c>
       <c r="G63" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="64" spans="3:9" x14ac:dyDescent="0.2">
@@ -4076,7 +4132,7 @@
         <v>64</v>
       </c>
       <c r="G64" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
@@ -4087,7 +4143,7 @@
         <v>65</v>
       </c>
       <c r="G65" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
@@ -4101,7 +4157,7 @@
         <v>66</v>
       </c>
       <c r="G66" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
@@ -4115,7 +4171,7 @@
         <v>67</v>
       </c>
       <c r="G67" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
@@ -4129,7 +4185,7 @@
         <v>68</v>
       </c>
       <c r="G68" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
@@ -4137,13 +4193,13 @@
         <v>3</v>
       </c>
       <c r="C69" t="s">
-        <v>69</v>
+        <v>192</v>
       </c>
       <c r="E69" t="s">
-        <v>69</v>
+        <v>192</v>
       </c>
       <c r="G69" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
@@ -4151,13 +4207,13 @@
         <v>4</v>
       </c>
       <c r="C70" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G70" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
@@ -4165,13 +4221,13 @@
         <v>5</v>
       </c>
       <c r="C71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G71" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
@@ -4179,13 +4235,13 @@
         <v>6</v>
       </c>
       <c r="C72" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G72" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
@@ -4193,13 +4249,13 @@
         <v>7</v>
       </c>
       <c r="C73" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G73" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
@@ -4207,16 +4263,16 @@
         <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G74" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
@@ -4224,16 +4280,16 @@
         <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G75" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="I75" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
@@ -4241,16 +4297,16 @@
         <v>10</v>
       </c>
       <c r="C76" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G76" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="I76" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
@@ -4258,16 +4314,16 @@
         <v>11</v>
       </c>
       <c r="C77" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G77" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="I77" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
@@ -4275,13 +4331,13 @@
         <v>12</v>
       </c>
       <c r="C78" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G78" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
@@ -4289,181 +4345,184 @@
         <v>13</v>
       </c>
       <c r="C79" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G79" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="I79" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C80" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G80" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="I80" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="81" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C81" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G81" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="I81" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="82" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C82" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G82" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="83" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C83" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G83" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="84" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C84" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G84" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="85" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C85" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G85" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="86" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C86" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G86" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="87" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C87" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G87" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="88" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C88" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G88" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="89" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C89" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G89" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="90" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C90" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G90" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="91" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C91" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G91" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="92" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C92" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G92" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
     </row>
     <row r="93" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C93" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>93</v>
+        <v>92</v>
+      </c>
+      <c r="G93" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="94" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C94" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="97" spans="3:5" x14ac:dyDescent="0.2">
@@ -4473,17 +4532,17 @@
     </row>
     <row r="98" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C98" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="99" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C99" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="100" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C100" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="103" spans="3:5" x14ac:dyDescent="0.2">
@@ -4493,191 +4552,192 @@
     </row>
     <row r="104" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C104" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="105" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C105" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="106" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C106" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="107" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C107" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E107" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="108" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C108" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E108" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="109" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C109" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="110" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C110" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="111" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C111" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="112" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C112" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="113" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C113" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="114" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C114" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="115" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C115" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="116" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C116" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="117" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C117" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="118" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C118" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="119" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C119" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E119" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="120" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C120" t="s">
+        <v>113</v>
+      </c>
+      <c r="E120" t="s">
         <v>114</v>
-      </c>
-      <c r="E120" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="121" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C121" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E121" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="122" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C122" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="123" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C123" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="124" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C124" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="125" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C125" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="126" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C126" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="127" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C127" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="128" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C128" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="129" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C129" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="130" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C130" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="131" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C131" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="132" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C132" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="133" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C133" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="134" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C134" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="135" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C135" t="s">
-        <v>129</v>
+        <v>189</v>
       </c>
     </row>
     <row r="136" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C136" t="s">
-        <v>130</v>
+        <v>190</v>
       </c>
     </row>
     <row r="137" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C137" t="s">
-        <v>131</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
   <tableParts count="16">
     <tablePart r:id="rId2"/>
